--- a/SOURCES.xlsx
+++ b/SOURCES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespinoz/Library/CloudStorage/GoogleDrive-jespinoz.jcvi@gmail.com/My Drive/Algorithms/Pipelines/veba_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13141E6-D9A0-9549-979E-4D9A8B98CA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7E0430-AC7C-C54F-8B89-24323D895DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{BCF4D12C-A44D-494A-AB2B-92986A08BAAE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" activeTab="1" xr2:uid="{BCF4D12C-A44D-494A-AB2B-92986A08BAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Brief" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="723">
   <si>
     <t>Dependency</t>
   </si>
@@ -2142,6 +2142,72 @@
   </si>
   <si>
     <t>Kim D. Pruitt, Tatiana Tatusova, Donna R. Maglott, NCBI Reference Sequence (RefSeq): a curated non-redundant sequence database of genomes, transcripts and proteins, Nucleic Acids Research, Volume 33, Issue suppl_1, 1 January 2005, Pages D501–D504, https://doi.org/10.1093/nar/gki025</t>
+  </si>
+  <si>
+    <t>skani</t>
+  </si>
+  <si>
+    <t>Shaw, J., Yu, Y.W. Fast and robust metagenomic sequence comparison through sparse chaining with skani. Nat Methods 20, 1661–1665 (2023). https://doi.org/10.1038/s41592-023-02018-3</t>
+  </si>
+  <si>
+    <t>humann</t>
+  </si>
+  <si>
+    <t>Francesco Beghini, Lauren J McIver, Aitor Blanco-Míguez, Leonard Dubois, Francesco Asnicar, Sagun Maharjan, Ana Mailyan, Paolo Manghi, Matthias Scholz, Andrew Maltez Thomas, Mireia Valles-Colomer, George Weingart, Yancong Zhang, Moreno Zolfo, Curtis Huttenhower, Eric A Franzosa, Nicola Segata (2021) Integrating taxonomic, functional, and strain-level profiling of diverse microbial communities with bioBakery 3 eLife 10:e65088 https://doi.org/</t>
+  </si>
+  <si>
+    <t>minimap2</t>
+  </si>
+  <si>
+    <t>Heng Li, Minimap2: pairwise alignment for nucleotide sequences, Bioinformatics, Volume 34, Issue 18, September 2018, Pages 3094–3100, https://doi.org/10.1093/bioinformatics/bty191</t>
+  </si>
+  <si>
+    <t>assembly-long.py</t>
+  </si>
+  <si>
+    <t>flye</t>
+  </si>
+  <si>
+    <t>Kolmogorov, M., Yuan, J., Lin, Y. et al. Assembly of long, error-prone reads using repeat graphs. Nat Biotechnol 37, 540–546 (2019). https://doi.org/10.1038/s41587-019-0072-8</t>
+  </si>
+  <si>
+    <t>profile-pathway.py</t>
+  </si>
+  <si>
+    <t>preprocess-long.py</t>
+  </si>
+  <si>
+    <t>chopper</t>
+  </si>
+  <si>
+    <t>Wouter De Coster, Rosa Rademakers, NanoPack2: population-scale evaluation of long-read sequencing data, Bioinformatics, Volume 39, Issue 5, May 2023, btad311, https://doi.org/10.1093/bioinformatics/btad311</t>
+  </si>
+  <si>
+    <t>metaflye</t>
+  </si>
+  <si>
+    <t>Kolmogorov, M., Bickhart, D.M., Behsaz, B. et al. metaFlye: scalable long-read metagenome assembly using repeat graphs. Nat Methods 17, 1103–1110 (2020). https://doi.org/10.1038/s41592-020-00971-x</t>
+  </si>
+  <si>
+    <t>gtdb</t>
+  </si>
+  <si>
+    <t>t2t-human-genome</t>
+  </si>
+  <si>
+    <t>Sergey Nurk et al. ,The complete sequence of a human genome.Science376,44-53(2022).DOI:10.1126/science.abj6987</t>
+  </si>
+  <si>
+    <t>anvio-markers</t>
+  </si>
+  <si>
+    <t>Eren AM, Esen ÖC, Quince C, Vineis JH, Morrison HG, Sogin ML, Delmont TO. Anvi'o: an advanced analysis and visualization platform for 'omics data. PeerJ. 2015 Oct 8;3:e1319. doi: 10.7717/peerj.1319. PMID: 26500826; PMCID: PMC4614810.</t>
+  </si>
+  <si>
+    <t>César Piñeiro, José M Abuín, Juan C Pichel, Very Fast Tree: speeding up the estimation of phylogenies for large alignments through parallelization and vectorization strategies, Bioinformatics, Volume 36, Issue 17, September 2020, Pages 4658–4659, https://doi.org/10.1093/bioinformatics/btaa582</t>
+  </si>
+  <si>
+    <t>veryfasttree</t>
   </si>
 </sst>
 </file>
@@ -2368,7 +2434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2396,6 +2462,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2710,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E87ED2-0BF5-0B45-882F-EF80BBF121D0}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2788,297 +2856,353 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>712</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>89</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>671</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>672</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>671</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>708</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>703</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>668</v>
+        <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>669</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>705</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>668</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>90</v>
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B51" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3089,10 +3213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E75191-30C5-2F4C-B3E3-6CB9B023842C}">
-  <dimension ref="A1:XFC46"/>
+  <dimension ref="A1:WYR53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="Q6" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3101,24 +3225,26 @@
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="101.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="101.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3140,14 +3266,17 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="12" t="s">
         <v>87</v>
@@ -3159,48 +3288,57 @@
         <v>47</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S2" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="U2" s="11"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>28</v>
       </c>
@@ -3210,10 +3348,10 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -3222,14 +3360,17 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="V3" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>100</v>
       </c>
@@ -3249,27 +3390,30 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="V4" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3279,17 +3423,24 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" s="14" t="s">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="V5" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -3306,37 +3457,40 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="M6" s="15"/>
       <c r="N6" s="15" t="s">
         <v>97</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" s="21" t="s">
+      <c r="P6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="V6" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -3348,14 +3502,17 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="V7" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -3363,10 +3520,10 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -3377,14 +3534,17 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="V8" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -3393,10 +3553,10 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -3406,16 +3566,19 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="V9" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>35</v>
+        <v>712</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3431,30 +3594,29 @@
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
-      <c r="P10" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="15"/>
+      <c r="U10" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="S10" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="V10" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -3465,24 +3627,33 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V11" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -3493,20 +3664,21 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>97</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -3522,24 +3694,27 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -3551,25 +3726,28 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>671</v>
+        <v>23</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -3580,16 +3758,19 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>9</v>
+        <v>671</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -3599,9 +3780,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
@@ -3611,45 +3790,55 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3662,23 +3851,26 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="M18" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="R18" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="V18" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -3695,19 +3887,22 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -3723,102 +3918,111 @@
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
-      <c r="P20" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G22" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="N22" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="P22" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="Q22" s="15"/>
-      <c r="R22" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>30</v>
+        <v>708</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -3826,47 +4030,53 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="V23" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="L24" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -3877,30 +4087,31 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="K25" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="S25" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>10</v>
+        <v>703</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -3915,26 +4126,31 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="S26" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="V26" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -3943,25 +4159,28 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -3972,23 +4191,28 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="S28" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q28" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="C29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -4002,29 +4226,30 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -4033,29 +4258,30 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="S30" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="V30" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -4064,25 +4290,26 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S31" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V31" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -4095,25 +4322,30 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V32" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>668</v>
+        <v>17</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -4124,52 +4356,60 @@
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="R33" s="14" t="s">
-        <v>670</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="V33" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="K34" s="15"/>
-      <c r="L34" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-      <c r="R34" s="21" t="s">
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="S34" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="V34" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -4180,24 +4420,27 @@
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
-      <c r="P35" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S35" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V35" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
         <v>97</v>
@@ -4213,25 +4456,28 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="R36" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S36" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V36" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>24</v>
+        <v>668</v>
       </c>
       <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
@@ -4242,24 +4488,27 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>21</v>
+        <v>705</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="E38" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -4271,51 +4520,59 @@
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
-      <c r="R38" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S38" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R38" s="15"/>
+      <c r="S38" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T38" s="15"/>
+      <c r="U38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>97</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="F39" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c r="M39" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V39" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -4328,100 +4585,95 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S40" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="Q40" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V40" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="M41" s="15"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O41" s="15"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="R41" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="S41" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V41" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="M42" s="15"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="R42" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -4432,26 +4684,27 @@
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
-      <c r="R43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S43" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V43" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -4463,26 +4716,27 @@
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
-      <c r="R44" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="S44" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19 16383:16383" x14ac:dyDescent="0.2">
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="V44" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="D45" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
@@ -4494,46 +4748,307 @@
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
-      <c r="R45" s="21" t="s">
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V45" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U46" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="V46" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V47" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V48" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22 16216:16216" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="V49" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22 16216:16216" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V50" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22 16216:16216" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="S45" s="16" t="s">
+      <c r="V51" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="XFC45" s="4"/>
-    </row>
-    <row r="46" spans="1:19 16383:16383" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="WYR51" s="4"/>
+    </row>
+    <row r="52" spans="1:22 16216:16216" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="V52" t="s">
+        <v>721</v>
+      </c>
+      <c r="WYR52" s="28"/>
+    </row>
+    <row r="53" spans="1:22 16216:16216" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="22" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S46" s="19" t="s">
+      <c r="V53" s="19" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
-    <sortCondition ref="A1:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+    <sortCondition ref="A1:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4541,10 +5056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A607AB1B-07CC-4649-917C-1EAEA9F52598}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4570,103 +5085,167 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>675</v>
+        <v>719</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>693</v>
-      </c>
-      <c r="B4" t="s">
-        <v>694</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>686</v>
-      </c>
-      <c r="B5" t="s">
-        <v>687</v>
+        <v>674</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>689</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>690</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>697</v>
-      </c>
-      <c r="B7" t="s">
-        <v>698</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="B8" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>699</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>700</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>695</v>
-      </c>
-      <c r="B10" t="s">
-        <v>696</v>
+        <v>716</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B11" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="B12" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B13" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>699</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>683</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>678</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>717</v>
+      </c>
+      <c r="B20" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>680</v>
+      </c>
+      <c r="B21" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>685</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" s="4" t="s">
         <v>688</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
-    <sortCondition ref="A1:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="A1:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4676,7 +5255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BD873-1AA5-9D41-8E56-984002B1A488}">
   <dimension ref="A1:A661"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="N161" sqref="N161"/>
     </sheetView>
   </sheetViews>
